--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D6">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>57.54923413566739</v>
+        <v>59.08096280087527</v>
       </c>
       <c r="G6">
-        <v>8.041958041958042</v>
+        <v>9.395973154362416</v>
       </c>
       <c r="H6">
-        <v>91.95804195804196</v>
+        <v>90.60402684563759</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>ano</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>returning_rate</t>
-  </si>
-  <si>
-    <t>2021</t>
   </si>
   <si>
     <t>2022</t>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,22 +447,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>484</v>
+        <v>362</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="E2">
-        <v>419</v>
+        <v>195</v>
       </c>
       <c r="F2">
-        <v>60.74766355140186</v>
+        <v>35.0104821802935</v>
       </c>
       <c r="G2">
-        <v>86.57024793388429</v>
+        <v>53.86740331491713</v>
       </c>
       <c r="H2">
-        <v>13.4297520661157</v>
+        <v>46.13259668508287</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,22 +473,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E3">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F3">
-        <v>34.50413223140496</v>
+        <v>51.38121546961326</v>
       </c>
       <c r="G3">
-        <v>53.86740331491713</v>
+        <v>41.875</v>
       </c>
       <c r="H3">
-        <v>46.13259668508287</v>
+        <v>58.12500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,22 +499,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="D4">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="E4">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="F4">
-        <v>51.38121546961326</v>
+        <v>72.8125</v>
       </c>
       <c r="G4">
-        <v>41.875</v>
+        <v>49.01531728665208</v>
       </c>
       <c r="H4">
-        <v>58.12500000000001</v>
+        <v>50.98468271334792</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,47 +525,21 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>457</v>
+        <v>298</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="E5">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>72.8125</v>
+        <v>59.08096280087527</v>
       </c>
       <c r="G5">
-        <v>49.01531728665208</v>
+        <v>9.395973154362416</v>
       </c>
       <c r="H5">
-        <v>50.98468271334792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>298</v>
-      </c>
-      <c r="D6">
-        <v>270</v>
-      </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>59.08096280087527</v>
-      </c>
-      <c r="G6">
-        <v>9.395973154362416</v>
-      </c>
-      <c r="H6">
         <v>90.60402684563759</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ano</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>returning_rate</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
   <si>
     <t>2022</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>195</v>
+        <v>419</v>
       </c>
       <c r="F2">
-        <v>35.0104821802935</v>
+        <v>60.55045871559633</v>
       </c>
       <c r="G2">
-        <v>53.86740331491713</v>
+        <v>86.39175257731959</v>
       </c>
       <c r="H2">
-        <v>46.13259668508287</v>
+        <v>13.60824742268041</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,22 +476,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="D3">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E3">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="F3">
-        <v>51.38121546961326</v>
+        <v>34.43298969072165</v>
       </c>
       <c r="G3">
-        <v>41.875</v>
+        <v>53.86740331491713</v>
       </c>
       <c r="H3">
-        <v>58.12500000000001</v>
+        <v>46.13259668508287</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -499,22 +502,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>457</v>
+        <v>320</v>
       </c>
       <c r="D4">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="E4">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="F4">
-        <v>72.8125</v>
+        <v>51.38121546961326</v>
       </c>
       <c r="G4">
-        <v>49.01531728665208</v>
+        <v>41.875</v>
       </c>
       <c r="H4">
-        <v>50.98468271334792</v>
+        <v>58.12500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -525,22 +528,48 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>298</v>
+        <v>457</v>
       </c>
       <c r="D5">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="F5">
-        <v>59.08096280087527</v>
+        <v>72.8125</v>
       </c>
       <c r="G5">
-        <v>9.395973154362416</v>
+        <v>49.01531728665208</v>
       </c>
       <c r="H5">
-        <v>90.60402684563759</v>
+        <v>50.98468271334792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>340</v>
+      </c>
+      <c r="D6">
+        <v>290</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>63.45733041575492</v>
+      </c>
+      <c r="G6">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="H6">
+        <v>85.29411764705883</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D6">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>63.45733041575492</v>
+        <v>64.11378555798687</v>
       </c>
       <c r="G6">
-        <v>14.70588235294118</v>
+        <v>16.76136363636364</v>
       </c>
       <c r="H6">
-        <v>85.29411764705883</v>
+        <v>83.23863636363636</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -450,22 +450,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F2">
-        <v>60.55045871559633</v>
+        <v>59.81308411214953</v>
       </c>
       <c r="G2">
-        <v>86.39175257731959</v>
+        <v>86.69438669438669</v>
       </c>
       <c r="H2">
-        <v>13.60824742268041</v>
+        <v>13.30561330561331</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,22 +476,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>195</v>
       </c>
       <c r="F3">
-        <v>34.43298969072165</v>
+        <v>34.0956340956341</v>
       </c>
       <c r="G3">
-        <v>53.86740331491713</v>
+        <v>54.31754874651811</v>
       </c>
       <c r="H3">
-        <v>46.13259668508287</v>
+        <v>45.68245125348189</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,22 +502,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D4">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4">
-        <v>51.38121546961326</v>
+        <v>50.97493036211699</v>
       </c>
       <c r="G4">
-        <v>41.875</v>
+        <v>42.45283018867924</v>
       </c>
       <c r="H4">
-        <v>58.12500000000001</v>
+        <v>57.54716981132076</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,22 +528,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E5">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F5">
-        <v>72.8125</v>
+        <v>71.69811320754717</v>
       </c>
       <c r="G5">
-        <v>49.01531728665208</v>
+        <v>49.22048997772828</v>
       </c>
       <c r="H5">
-        <v>50.98468271334792</v>
+        <v>50.77951002227172</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D6">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>64.11378555798687</v>
+        <v>61.69265033407573</v>
       </c>
       <c r="G6">
-        <v>16.76136363636364</v>
+        <v>17.3134328358209</v>
       </c>
       <c r="H6">
-        <v>83.23863636363636</v>
+        <v>82.68656716417911</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D6">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F6">
-        <v>61.69265033407573</v>
+        <v>62.36080178173719</v>
       </c>
       <c r="G6">
-        <v>17.3134328358209</v>
+        <v>18.6046511627907</v>
       </c>
       <c r="H6">
-        <v>82.68656716417911</v>
+        <v>81.3953488372093</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D6">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>62.36080178173719</v>
+        <v>62.58351893095768</v>
       </c>
       <c r="G6">
-        <v>18.6046511627907</v>
+        <v>19.25287356321839</v>
       </c>
       <c r="H6">
-        <v>81.3953488372093</v>
+        <v>80.74712643678161</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D6">
         <v>281</v>
       </c>
       <c r="E6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>62.58351893095768</v>
       </c>
       <c r="G6">
-        <v>19.25287356321839</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="H6">
-        <v>80.74712643678161</v>
+        <v>80.28571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D6">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>62.58351893095768</v>
+        <v>62.80623608017817</v>
       </c>
       <c r="G6">
-        <v>19.71428571428572</v>
+        <v>20.11331444759207</v>
       </c>
       <c r="H6">
-        <v>80.28571428571428</v>
+        <v>79.88668555240793</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D6">
         <v>282</v>
       </c>
       <c r="E6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>62.80623608017817</v>
       </c>
       <c r="G6">
-        <v>20.11331444759207</v>
+        <v>20.56338028169014</v>
       </c>
       <c r="H6">
-        <v>79.88668555240793</v>
+        <v>79.43661971830987</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D6">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E6">
         <v>73</v>
       </c>
       <c r="F6">
-        <v>62.80623608017817</v>
+        <v>63.02895322939867</v>
       </c>
       <c r="G6">
-        <v>20.56338028169014</v>
+        <v>20.50561797752809</v>
       </c>
       <c r="H6">
-        <v>79.43661971830987</v>
+        <v>79.49438202247191</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>63.02895322939867</v>
       </c>
       <c r="G6">
-        <v>20.50561797752809</v>
+        <v>20.72829131652661</v>
       </c>
       <c r="H6">
-        <v>79.49438202247191</v>
+        <v>79.27170868347339</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D6">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>63.02895322939867</v>
+        <v>63.91982182628062</v>
       </c>
       <c r="G6">
-        <v>20.72829131652661</v>
+        <v>20.9366391184573</v>
       </c>
       <c r="H6">
-        <v>79.27170868347339</v>
+        <v>79.06336088154269</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -450,22 +450,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F2">
-        <v>59.81308411214953</v>
+        <v>60.74766355140186</v>
       </c>
       <c r="G2">
-        <v>86.69438669438669</v>
+        <v>86.57024793388429</v>
       </c>
       <c r="H2">
-        <v>13.30561330561331</v>
+        <v>13.4297520661157</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,22 +476,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E3">
         <v>195</v>
       </c>
       <c r="F3">
-        <v>34.0956340956341</v>
+        <v>34.50413223140496</v>
       </c>
       <c r="G3">
-        <v>54.31754874651811</v>
+        <v>53.86740331491713</v>
       </c>
       <c r="H3">
-        <v>45.68245125348189</v>
+        <v>46.13259668508287</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,22 +502,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4">
-        <v>50.97493036211699</v>
+        <v>51.38121546961326</v>
       </c>
       <c r="G4">
-        <v>42.45283018867924</v>
+        <v>41.875</v>
       </c>
       <c r="H4">
-        <v>57.54716981132076</v>
+        <v>58.12500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,22 +528,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D5">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E5">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F5">
-        <v>71.69811320754717</v>
+        <v>72.8125</v>
       </c>
       <c r="G5">
-        <v>49.22048997772828</v>
+        <v>49.01531728665208</v>
       </c>
       <c r="H5">
-        <v>50.77951002227172</v>
+        <v>50.98468271334792</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D6">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6">
-        <v>63.91982182628062</v>
+        <v>66.73960612691467</v>
       </c>
       <c r="G6">
-        <v>20.9366391184573</v>
+        <v>20.98445595854922</v>
       </c>
       <c r="H6">
-        <v>79.06336088154269</v>
+        <v>79.01554404145078</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D6">
         <v>305</v>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>66.73960612691467</v>
       </c>
       <c r="G6">
-        <v>20.98445595854922</v>
+        <v>21.18863049095607</v>
       </c>
       <c r="H6">
-        <v>79.01554404145078</v>
+        <v>78.81136950904393</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D6">
         <v>305</v>
       </c>
       <c r="E6">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>66.73960612691467</v>
       </c>
       <c r="G6">
-        <v>21.18863049095607</v>
+        <v>21.7948717948718</v>
       </c>
       <c r="H6">
-        <v>78.81136950904393</v>
+        <v>78.2051282051282</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D6">
         <v>305</v>
       </c>
       <c r="E6">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>66.73960612691467</v>
       </c>
       <c r="G6">
-        <v>21.7948717948718</v>
+        <v>22.39185750636132</v>
       </c>
       <c r="H6">
-        <v>78.2051282051282</v>
+        <v>77.60814249363868</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D6">
         <v>305</v>
       </c>
       <c r="E6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>66.73960612691467</v>
       </c>
       <c r="G6">
-        <v>22.39185750636132</v>
+        <v>22.97979797979798</v>
       </c>
       <c r="H6">
-        <v>77.60814249363868</v>
+        <v>77.02020202020202</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D6">
         <v>305</v>
       </c>
       <c r="E6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>66.73960612691467</v>
       </c>
       <c r="G6">
-        <v>22.97979797979798</v>
+        <v>22.78481012658228</v>
       </c>
       <c r="H6">
-        <v>77.02020202020202</v>
+        <v>77.21518987341773</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E6">
         <v>90</v>
       </c>
       <c r="F6">
-        <v>66.73960612691467</v>
+        <v>66.95842450765865</v>
       </c>
       <c r="G6">
-        <v>22.78481012658228</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="H6">
-        <v>77.21518987341773</v>
+        <v>77.27272727272727</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F6">
-        <v>66.95842450765865</v>
+        <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>22.72727272727273</v>
+        <v>23.25</v>
       </c>
       <c r="H6">
-        <v>77.27272727272727</v>
+        <v>76.75</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>23.25</v>
+        <v>23.44139650872818</v>
       </c>
       <c r="H6">
-        <v>76.75</v>
+        <v>76.55860349127181</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>23.44139650872818</v>
+        <v>23.6318407960199</v>
       </c>
       <c r="H6">
-        <v>76.55860349127181</v>
+        <v>76.3681592039801</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>23.6318407960199</v>
+        <v>24.19753086419753</v>
       </c>
       <c r="H6">
-        <v>76.3681592039801</v>
+        <v>75.80246913580247</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>24.19753086419753</v>
+        <v>24.38423645320197</v>
       </c>
       <c r="H6">
-        <v>75.80246913580247</v>
+        <v>75.61576354679804</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>24.38423645320197</v>
+        <v>24.57002457002457</v>
       </c>
       <c r="H6">
-        <v>75.61576354679804</v>
+        <v>75.42997542997543</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>24.57002457002457</v>
+        <v>24.75490196078432</v>
       </c>
       <c r="H6">
-        <v>75.42997542997543</v>
+        <v>75.24509803921569</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>24.75490196078432</v>
+        <v>24.93887530562347</v>
       </c>
       <c r="H6">
-        <v>75.24509803921569</v>
+        <v>75.06112469437653</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>24.93887530562347</v>
+        <v>25.12195121951219</v>
       </c>
       <c r="H6">
-        <v>75.06112469437653</v>
+        <v>74.8780487804878</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D6">
         <v>307</v>
       </c>
       <c r="E6">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>67.17724288840262</v>
       </c>
       <c r="G6">
-        <v>25.12195121951219</v>
+        <v>25.48543689320388</v>
       </c>
       <c r="H6">
-        <v>74.8780487804878</v>
+        <v>74.51456310679612</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D6">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="F6">
-        <v>67.17724288840262</v>
+        <v>67.39606126914661</v>
       </c>
       <c r="G6">
-        <v>25.48543689320388</v>
+        <v>25.42372881355932</v>
       </c>
       <c r="H6">
-        <v>74.51456310679612</v>
+        <v>74.57627118644068</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D6">
         <v>308</v>
       </c>
       <c r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>67.39606126914661</v>
       </c>
       <c r="G6">
-        <v>25.42372881355932</v>
+        <v>25.60386473429952</v>
       </c>
       <c r="H6">
-        <v>74.57627118644068</v>
+        <v>74.39613526570048</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D6">
         <v>308</v>
       </c>
       <c r="E6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>67.39606126914661</v>
       </c>
       <c r="G6">
-        <v>25.60386473429952</v>
+        <v>25.78313253012048</v>
       </c>
       <c r="H6">
-        <v>74.39613526570048</v>
+        <v>74.21686746987952</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D6">
         <v>308</v>
       </c>
       <c r="E6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>67.39606126914661</v>
       </c>
       <c r="G6">
-        <v>25.78313253012048</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="H6">
-        <v>74.21686746987952</v>
+        <v>74.03846153846155</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D6">
         <v>308</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <v>67.39606126914661</v>
       </c>
       <c r="G6">
-        <v>25.96153846153846</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H6">
-        <v>74.03846153846155</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D6">
         <v>308</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>67.39606126914661</v>
       </c>
       <c r="G6">
-        <v>26.31578947368421</v>
+        <v>26.49164677804296</v>
       </c>
       <c r="H6">
-        <v>73.68421052631578</v>
+        <v>73.50835322195705</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D6">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6">
         <v>111</v>
       </c>
       <c r="F6">
-        <v>67.39606126914661</v>
+        <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>26.49164677804296</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="H6">
-        <v>73.50835322195705</v>
+        <v>73.57142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>26.42857142857143</v>
+        <v>26.95035460992908</v>
       </c>
       <c r="H6">
-        <v>73.57142857142858</v>
+        <v>73.04964539007092</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>26.95035460992908</v>
+        <v>27.12264150943397</v>
       </c>
       <c r="H6">
-        <v>73.04964539007092</v>
+        <v>72.87735849056604</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>27.12264150943397</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="H6">
-        <v>72.87735849056604</v>
+        <v>72.53521126760563</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>27.46478873239437</v>
+        <v>27.80373831775701</v>
       </c>
       <c r="H6">
-        <v>72.53521126760563</v>
+        <v>72.19626168224299</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>27.80373831775701</v>
+        <v>28.13953488372093</v>
       </c>
       <c r="H6">
-        <v>72.19626168224299</v>
+        <v>71.86046511627907</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>28.13953488372093</v>
+        <v>28.63741339491917</v>
       </c>
       <c r="H6">
-        <v>71.86046511627907</v>
+        <v>71.36258660508084</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>28.63741339491917</v>
+        <v>28.80184331797235</v>
       </c>
       <c r="H6">
-        <v>71.36258660508084</v>
+        <v>71.19815668202764</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_anual.xlsx
@@ -554,22 +554,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D6">
         <v>309</v>
       </c>
       <c r="E6">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>67.6148796498906</v>
       </c>
       <c r="G6">
-        <v>28.80184331797235</v>
+        <v>29.29061784897025</v>
       </c>
       <c r="H6">
-        <v>71.19815668202764</v>
+        <v>70.70938215102976</v>
       </c>
     </row>
   </sheetData>
